--- a/экономические_показатели.xlsx
+++ b/экономические_показатели.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Франция</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Япония</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B6" t="n">
